--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2849767.460518924</v>
+        <v>-2851627.468447126</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.59841027</v>
+        <v>5362323.598410267</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16529493.60229481</v>
+        <v>16529493.60229482</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375887</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F11" t="n">
-        <v>279.3402441070516</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913301</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>215.1305233718816</v>
       </c>
       <c r="X11" t="n">
         <v>292.3075386953748</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677308</v>
+        <v>89.10962166677305</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02150358154449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230668</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>67.64565041028962</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8698590135443</v>
+        <v>80.64449231353623</v>
       </c>
       <c r="H12" t="n">
-        <v>51.43940286351125</v>
+        <v>20.57944696583557</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198583</v>
+        <v>66.88705533198581</v>
       </c>
       <c r="T12" t="n">
-        <v>194.2248522055965</v>
+        <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038236</v>
+        <v>148.4208689038235</v>
       </c>
       <c r="V12" t="n">
         <v>155.377025166331</v>
@@ -1515,7 +1515,7 @@
         <v>128.3494232203832</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>128.2591337942101</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553357</v>
+        <v>89.82325911553355</v>
       </c>
       <c r="D13" t="n">
-        <v>10.25253388109738</v>
+        <v>71.19191103511807</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347491</v>
+        <v>8.071023509453816</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983699</v>
+        <v>67.99748603983696</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606993</v>
+        <v>89.3319518860699</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407168</v>
+        <v>73.81919917407166</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974152</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361166</v>
+        <v>44.31880839361165</v>
       </c>
       <c r="S13" t="n">
         <v>125.0622420268079</v>
@@ -1582,7 +1582,7 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U13" t="n">
-        <v>208.8280783467079</v>
+        <v>208.8280783467078</v>
       </c>
       <c r="V13" t="n">
         <v>174.7140813407337</v>
@@ -1607,7 +1607,7 @@
         <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879133</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D14" t="n">
         <v>277.2594796375887</v>
@@ -1616,7 +1616,7 @@
         <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>324.0503065729689</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G14" t="n">
         <v>335.1249171548103</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913301</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201118</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>173.7017502545638</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.3919177722261</v>
       </c>
       <c r="X14" t="n">
-        <v>292.3075386953748</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H15" t="n">
-        <v>98.00300894892952</v>
+        <v>98.00300894892996</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
@@ -1765,25 +1765,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553357</v>
+        <v>89.82325911553355</v>
       </c>
       <c r="D16" t="n">
-        <v>71.1919110351181</v>
+        <v>71.19191103511807</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347491</v>
+        <v>69.01040066347488</v>
       </c>
       <c r="F16" t="n">
-        <v>7.058108885816136</v>
+        <v>67.99748603983696</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606992</v>
+        <v>89.33195188606989</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407168</v>
+        <v>12.87982202005185</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974153</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361166</v>
+        <v>44.31880839361164</v>
       </c>
       <c r="S16" t="n">
         <v>125.0622420268079</v>
@@ -1819,7 +1819,7 @@
         <v>145.2432203545649</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467079</v>
+        <v>208.8280783467078</v>
       </c>
       <c r="V16" t="n">
         <v>174.7140813407337</v>
@@ -1844,7 +1844,7 @@
         <v>230.4635783425402</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0026284500686</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D17" t="n">
         <v>202.4127782997426</v>
@@ -1853,7 +1853,7 @@
         <v>229.6601067513214</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6057824207711</v>
+        <v>254.6057824207726</v>
       </c>
       <c r="G17" t="n">
         <v>260.2782158169642</v>
@@ -1941,7 +1941,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S18" t="n">
-        <v>144.3106173150801</v>
+        <v>144.3106173150807</v>
       </c>
       <c r="T18" t="n">
         <v>194.2248522055965</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8444308869176</v>
+        <v>225.8444308869178</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C19" t="n">
         <v>14.97655777768747</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>14.48525054822382</v>
+        <v>166.7555138691642</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.4858040099022</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T19" t="n">
         <v>70.39651901671884</v>
       </c>
       <c r="U19" t="n">
-        <v>137.5878111073768</v>
+        <v>133.9813770088617</v>
       </c>
       <c r="V19" t="n">
         <v>99.86738000288764</v>
@@ -2068,7 +2068,7 @@
         <v>73.43939206809679</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.31439003115443</v>
+        <v>69.74535478049448</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.4635783425416</v>
+        <v>230.4635783425402</v>
       </c>
       <c r="C20" t="n">
         <v>213.0026284500672</v>
@@ -2178,7 +2178,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492205</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2214,7 +2214,7 @@
         <v>194.2248522055965</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8444308869176</v>
+        <v>225.8444308869178</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2239,7 +2239,7 @@
         <v>27.56171686099694</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>14.97655777768747</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7555138691642</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.606434098514876</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896181</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T22" t="n">
-        <v>70.39651901671884</v>
+        <v>91.66986073791333</v>
       </c>
       <c r="U22" t="n">
         <v>133.9813770088617</v>
@@ -2299,7 +2299,7 @@
         <v>99.86738000288764</v>
       </c>
       <c r="W22" t="n">
-        <v>134.2527350156506</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>73.43939206809679</v>
@@ -2415,7 +2415,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C25" t="n">
-        <v>14.97655777768747</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>143.0157120979002</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896181</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68163076145946</v>
+        <v>70.39651901671884</v>
       </c>
       <c r="U25" t="n">
         <v>133.9813770088617</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>99.86738000288764</v>
       </c>
       <c r="W25" t="n">
         <v>134.2527350156506</v>
@@ -2573,7 +2573,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657015</v>
+        <v>24.31268534657013</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944829</v>
       </c>
       <c r="T26" t="n">
-        <v>131.0594253821478</v>
+        <v>131.0594253821477</v>
       </c>
       <c r="U26" t="n">
         <v>171.1456541020009</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628018</v>
+        <v>99.85232204628015</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297072</v>
+        <v>87.26716296297069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255524</v>
+        <v>68.63581488255521</v>
       </c>
       <c r="E28" t="n">
-        <v>66.45430451091205</v>
+        <v>66.45430451091202</v>
       </c>
       <c r="F28" t="n">
-        <v>65.44138988727413</v>
+        <v>65.4413898872741</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350707</v>
+        <v>86.77585573350704</v>
       </c>
       <c r="H28" t="n">
-        <v>71.26310302150883</v>
+        <v>71.2631030215088</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717866</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7627122410488</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S28" t="n">
-        <v>122.5061458742451</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T28" t="n">
         <v>142.6871242020021</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T29" t="n">
-        <v>131.0594253821478</v>
+        <v>131.0594253821477</v>
       </c>
       <c r="U29" t="n">
         <v>171.1456541020009</v>
@@ -2889,7 +2889,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628018</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297072</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255524</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091205</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727418</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350707</v>
+        <v>86.77585573350706</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150883</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717869</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.7627122410488</v>
       </c>
       <c r="S31" t="n">
-        <v>122.5061458742451</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T31" t="n">
         <v>142.6871242020021</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.7541835278236</v>
+        <v>302.7541835278234</v>
       </c>
       <c r="C32" t="n">
-        <v>285.2932336353505</v>
+        <v>285.2932336353504</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7033834850259</v>
+        <v>274.7033834850258</v>
       </c>
       <c r="E32" t="n">
-        <v>301.9507119366048</v>
+        <v>301.9507119366046</v>
       </c>
       <c r="F32" t="n">
-        <v>326.8963876060544</v>
+        <v>326.8963876060542</v>
       </c>
       <c r="G32" t="n">
-        <v>332.5688210022475</v>
+        <v>332.5688210022474</v>
       </c>
       <c r="H32" t="n">
-        <v>231.2880953742983</v>
+        <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657022</v>
+        <v>24.31268534657009</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944839</v>
+        <v>66.27774867944825</v>
       </c>
       <c r="T32" t="n">
-        <v>131.0594253821478</v>
+        <v>131.0594253821477</v>
       </c>
       <c r="U32" t="n">
-        <v>171.145654102001</v>
+        <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344779</v>
+        <v>247.7726003344777</v>
       </c>
       <c r="W32" t="n">
-        <v>269.261310581756</v>
+        <v>269.2613105817558</v>
       </c>
       <c r="X32" t="n">
-        <v>289.751442542812</v>
+        <v>289.7514425428118</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203965</v>
+        <v>306.2582805203964</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628025</v>
+        <v>99.85232204628011</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297079</v>
+        <v>87.26716296297064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255531</v>
+        <v>68.63581488255517</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091212</v>
+        <v>66.45430451091198</v>
       </c>
       <c r="F34" t="n">
-        <v>65.4413898872742</v>
+        <v>65.44138988727406</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350713</v>
+        <v>86.77585573350699</v>
       </c>
       <c r="H34" t="n">
-        <v>71.2631030215089</v>
+        <v>71.26310302150875</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717876</v>
+        <v>38.31700007717863</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104887</v>
+        <v>41.76271224104874</v>
       </c>
       <c r="S34" t="n">
-        <v>122.5061458742451</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T34" t="n">
-        <v>142.6871242020021</v>
+        <v>142.687124202002</v>
       </c>
       <c r="U34" t="n">
-        <v>206.271982194145</v>
+        <v>206.2719821941449</v>
       </c>
       <c r="V34" t="n">
-        <v>172.157985188171</v>
+        <v>172.1579851881708</v>
       </c>
       <c r="W34" t="n">
-        <v>206.543340200934</v>
+        <v>206.5433402009338</v>
       </c>
       <c r="X34" t="n">
-        <v>145.7299972533801</v>
+        <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164377</v>
+        <v>138.6049952164376</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S37" t="n">
         <v>98.19346052767489</v>
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S40" t="n">
         <v>98.19346052767489</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278.4414981812532</v>
+        <v>278.4414981812533</v>
       </c>
       <c r="C41" t="n">
-        <v>260.9805482887802</v>
+        <v>260.9805482887803</v>
       </c>
       <c r="D41" t="n">
-        <v>250.3906981384556</v>
+        <v>250.3906981384557</v>
       </c>
       <c r="E41" t="n">
-        <v>277.6380265900344</v>
+        <v>277.6380265900345</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594841</v>
+        <v>302.5837022594842</v>
       </c>
       <c r="G41" t="n">
-        <v>308.2561356556772</v>
+        <v>308.2561356556773</v>
       </c>
       <c r="H41" t="n">
-        <v>206.975410027728</v>
+        <v>206.9754100277281</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287809</v>
+        <v>41.96506333287819</v>
       </c>
       <c r="T41" t="n">
-        <v>106.7467400355775</v>
+        <v>106.7467400355776</v>
       </c>
       <c r="U41" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879076</v>
+        <v>223.4599149879077</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351857</v>
+        <v>244.9486252351858</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962418</v>
       </c>
       <c r="Y41" t="n">
-        <v>281.9455951738262</v>
+        <v>281.9455951738263</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669970994</v>
+        <v>75.53963669971004</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640048</v>
+        <v>62.95447761640058</v>
       </c>
       <c r="D43" t="n">
-        <v>44.323129535985</v>
+        <v>44.3231295359851</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434182</v>
+        <v>42.14161916434192</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070389</v>
+        <v>41.12870454070399</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693682</v>
+        <v>62.46317038693692</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493858</v>
+        <v>46.95041767493868</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060846</v>
+        <v>14.00431473060856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447857</v>
+        <v>17.45002689447868</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767482</v>
+        <v>98.19346052767492</v>
       </c>
       <c r="T43" t="n">
-        <v>118.3744388554318</v>
+        <v>118.3744388554319</v>
       </c>
       <c r="U43" t="n">
-        <v>181.9592968475747</v>
+        <v>181.9592968475748</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416006</v>
+        <v>147.8452998416008</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543636</v>
+        <v>182.2306548543638</v>
       </c>
       <c r="X43" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.2923098698674</v>
+        <v>114.2923098698675</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287815</v>
       </c>
       <c r="T44" t="n">
         <v>106.7467400355776</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669971002</v>
+        <v>75.53963669971</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640055</v>
+        <v>62.95447761640054</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598507</v>
+        <v>44.32312953598506</v>
       </c>
       <c r="E46" t="n">
-        <v>42.14161916434189</v>
+        <v>42.14161916434188</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070396</v>
+        <v>41.12870454070395</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693689</v>
+        <v>62.46317038693688</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493866</v>
+        <v>46.95041767493864</v>
       </c>
       <c r="I46" t="n">
-        <v>14.00431473060853</v>
+        <v>14.00431473060852</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447863</v>
       </c>
       <c r="S46" t="n">
         <v>98.19346052767489</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>625.2357483760967</v>
+        <v>972.7231724044982</v>
       </c>
       <c r="C11" t="n">
-        <v>625.2357483760967</v>
+        <v>681.966273628828</v>
       </c>
       <c r="D11" t="n">
-        <v>345.1756679340879</v>
+        <v>681.966273628828</v>
       </c>
       <c r="E11" t="n">
-        <v>345.1756679340879</v>
+        <v>374.3836391953255</v>
       </c>
       <c r="F11" t="n">
-        <v>63.01380519969189</v>
+        <v>374.3836391953255</v>
       </c>
       <c r="G11" t="n">
-        <v>63.01380519969189</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="H11" t="n">
-        <v>63.01380519969189</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="I11" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J11" t="n">
-        <v>88.06477096083688</v>
+        <v>255.4704199811899</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0242925384133</v>
+        <v>384.4299415587662</v>
       </c>
       <c r="L11" t="n">
-        <v>413.9117442942792</v>
+        <v>581.317393314632</v>
       </c>
       <c r="M11" t="n">
-        <v>664.6564079673444</v>
+        <v>832.0620569876971</v>
       </c>
       <c r="N11" t="n">
-        <v>1043.749319252028</v>
+        <v>1091.4778398433</v>
       </c>
       <c r="O11" t="n">
-        <v>1275.373025589587</v>
+        <v>1323.101546180859</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196611</v>
+        <v>1486.286019877172</v>
       </c>
       <c r="Q11" t="n">
-        <v>1793.681093361714</v>
+        <v>1770.84985779558</v>
       </c>
       <c r="R11" t="n">
         <v>1793.681093361714</v>
@@ -5075,16 +5075,16 @@
         <v>1793.681093361714</v>
       </c>
       <c r="V11" t="n">
-        <v>1540.823824182885</v>
+        <v>1793.681093361714</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.823824182885</v>
+        <v>1576.377534400217</v>
       </c>
       <c r="X11" t="n">
-        <v>1245.563684086547</v>
+        <v>1281.117394303878</v>
       </c>
       <c r="Y11" t="n">
-        <v>933.6299702754768</v>
+        <v>1281.117394303878</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>619.6174939172465</v>
+        <v>767.2794771006799</v>
       </c>
       <c r="C12" t="n">
-        <v>445.1644646361195</v>
+        <v>592.8264478195529</v>
       </c>
       <c r="D12" t="n">
-        <v>374.4356731396099</v>
+        <v>443.8920381583016</v>
       </c>
       <c r="E12" t="n">
-        <v>293.4038362988961</v>
+        <v>284.6545831528461</v>
       </c>
       <c r="F12" t="n">
-        <v>225.0748964905227</v>
+        <v>138.1200251797311</v>
       </c>
       <c r="G12" t="n">
-        <v>87.83261465865979</v>
+        <v>56.66094203474497</v>
       </c>
       <c r="H12" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="I12" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J12" t="n">
-        <v>48.14046576522589</v>
+        <v>172.9705907522306</v>
       </c>
       <c r="K12" t="n">
-        <v>233.8478339790602</v>
+        <v>533.9119901754251</v>
       </c>
       <c r="L12" t="n">
-        <v>677.7839045860844</v>
+        <v>713.5146990715853</v>
       </c>
       <c r="M12" t="n">
-        <v>906.7286627276711</v>
+        <v>942.4594572131718</v>
       </c>
       <c r="N12" t="n">
-        <v>1156.141552286623</v>
+        <v>1191.872346772124</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.077622893648</v>
+        <v>1397.816618756765</v>
       </c>
       <c r="P12" t="n">
-        <v>1746.032991285783</v>
+        <v>1543.771987148901</v>
       </c>
       <c r="Q12" t="n">
         <v>1793.681093361714</v>
       </c>
       <c r="R12" t="n">
-        <v>1793.681093361714</v>
+        <v>1784.931840215664</v>
       </c>
       <c r="S12" t="n">
-        <v>1726.118411208193</v>
+        <v>1717.369158062143</v>
       </c>
       <c r="T12" t="n">
-        <v>1529.931691808601</v>
+        <v>1599.388056827292</v>
       </c>
       <c r="U12" t="n">
-        <v>1380.011622208779</v>
+        <v>1449.46798722747</v>
       </c>
       <c r="V12" t="n">
-        <v>1223.065132141778</v>
+        <v>1292.521497160469</v>
       </c>
       <c r="W12" t="n">
-        <v>1047.033393578318</v>
+        <v>1116.48975859701</v>
       </c>
       <c r="X12" t="n">
-        <v>917.3875115375267</v>
+        <v>986.8438765562184</v>
       </c>
       <c r="Y12" t="n">
-        <v>709.6272127725729</v>
+        <v>857.2891959560062</v>
       </c>
     </row>
     <row r="13">
@@ -5179,22 +5179,22 @@
         <v>390.706619720055</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906637</v>
+        <v>318.7955984724609</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730123</v>
+        <v>310.6430494730126</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398436</v>
+        <v>241.958720139844</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054295</v>
+        <v>151.7244253054294</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485201</v>
+        <v>77.159577654852</v>
       </c>
       <c r="I13" t="n">
-        <v>35.87362186723428</v>
+        <v>35.87362186723429</v>
       </c>
       <c r="J13" t="n">
         <v>106.5712959071871</v>
@@ -5203,10 +5203,10 @@
         <v>303.2770659414889</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197773</v>
+        <v>589.0837408197772</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624208</v>
+        <v>896.6492882624207</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
@@ -5227,7 +5227,7 @@
         <v>1622.589123240078</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.878799649608</v>
+        <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
         <v>1264.941346774146</v>
@@ -5236,7 +5236,7 @@
         <v>1088.462476733001</v>
       </c>
       <c r="W13" t="n">
-        <v>877.2509248607823</v>
+        <v>877.2509248607822</v>
       </c>
       <c r="X13" t="n">
         <v>727.4669921275066</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1623.546633208819</v>
+        <v>1601.86319450833</v>
       </c>
       <c r="C14" t="n">
-        <v>1332.789734433149</v>
+        <v>1311.10629573266</v>
       </c>
       <c r="D14" t="n">
-        <v>1052.72965399114</v>
+        <v>1031.046215290651</v>
       </c>
       <c r="E14" t="n">
-        <v>745.1470195576378</v>
+        <v>723.4635808571488</v>
       </c>
       <c r="F14" t="n">
-        <v>417.82347756474</v>
+        <v>390.6832942322824</v>
       </c>
       <c r="G14" t="n">
-        <v>79.31346023664875</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664875</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J14" t="n">
-        <v>271.7700750181468</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K14" t="n">
-        <v>400.7295965957233</v>
+        <v>233.3239475753701</v>
       </c>
       <c r="L14" t="n">
-        <v>597.6170483515891</v>
+        <v>843.6960017361818</v>
       </c>
       <c r="M14" t="n">
-        <v>1184.494984615095</v>
+        <v>1489.340303425548</v>
       </c>
       <c r="N14" t="n">
-        <v>1443.910767470699</v>
+        <v>2116.572033811505</v>
       </c>
       <c r="O14" t="n">
-        <v>2052.526653258375</v>
+        <v>2348.195740149064</v>
       </c>
       <c r="P14" t="n">
-        <v>2534.291848044455</v>
+        <v>2511.380213845376</v>
       </c>
       <c r="Q14" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R14" t="n">
         <v>2608.663845209559</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015607</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T14" t="n">
-        <v>2539.134709015607</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="U14" t="n">
-        <v>2539.134709015607</v>
+        <v>2433.207531821111</v>
       </c>
       <c r="V14" t="n">
-        <v>2539.134709015607</v>
+        <v>2180.350262642282</v>
       </c>
       <c r="W14" t="n">
-        <v>2539.134709015607</v>
+        <v>1910.25741640771</v>
       </c>
       <c r="X14" t="n">
-        <v>2243.874568919269</v>
+        <v>1910.25741640771</v>
       </c>
       <c r="Y14" t="n">
-        <v>1931.940855108199</v>
+        <v>1910.25741640771</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305902</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494632</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D15" t="n">
-        <v>633.229844688212</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E15" t="n">
-        <v>473.9923896827565</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F15" t="n">
-        <v>327.4578317096415</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777785</v>
+        <v>190.215549877779</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552648</v>
+        <v>91.22261154552649</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J15" t="n">
-        <v>64.44012080218278</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K15" t="n">
-        <v>425.3815202253772</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L15" t="n">
-        <v>972.1161709719621</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1563.471801067485</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N15" t="n">
-        <v>2209.116102756851</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O15" t="n">
-        <v>2415.060374741492</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133627</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q15" t="n">
         <v>2608.663845209559</v>
@@ -5388,7 +5388,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V15" t="n">
         <v>1794.681776349347</v>
@@ -5397,10 +5397,10 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.7368395201769</v>
+        <v>497.7368395201772</v>
       </c>
       <c r="C16" t="n">
-        <v>407.0062747570117</v>
+        <v>407.006274757012</v>
       </c>
       <c r="D16" t="n">
-        <v>335.0952535094177</v>
+        <v>335.0952535094179</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3877780917662</v>
+        <v>265.3877780917666</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768004</v>
+        <v>196.7034487585985</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423863</v>
+        <v>106.4691539241845</v>
       </c>
       <c r="H16" t="n">
         <v>93.45923269180889</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J16" t="n">
         <v>122.870950944144</v>
@@ -5440,13 +5440,13 @@
         <v>319.5767209784458</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567342</v>
+        <v>605.3833958567341</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.9489432993777</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549739</v>
+        <v>1220.458435549738</v>
       </c>
       <c r="O16" t="n">
         <v>1494.32819539587</v>
@@ -5476,10 +5476,10 @@
         <v>893.5505798977392</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644633</v>
+        <v>743.7666471644635</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856749</v>
+        <v>601.1796861856751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831346</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.298906679761</v>
+        <v>1169.298906679763</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618393</v>
+        <v>964.8415548618409</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524237</v>
+        <v>732.8616490524253</v>
       </c>
       <c r="F17" t="n">
         <v>475.6840910516448</v>
@@ -5507,31 +5507,31 @@
         <v>212.7768023476407</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J17" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>494.523054850134</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L17" t="n">
-        <v>691.4105066059999</v>
+        <v>918.5210067970419</v>
       </c>
       <c r="M17" t="n">
-        <v>942.1551702790651</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N17" t="n">
-        <v>1587.799471968431</v>
+        <v>1428.68145332571</v>
       </c>
       <c r="O17" t="n">
-        <v>1819.423178305989</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P17" t="n">
-        <v>2301.18837309207</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q17" t="n">
         <v>2585.752211010479</v>
@@ -5546,19 +5546,19 @@
         <v>2549.301400566261</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801901</v>
       </c>
       <c r="V17" t="n">
         <v>2272.193275247158</v>
       </c>
       <c r="W17" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765873</v>
       </c>
       <c r="X17" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.575555293622</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106639</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>190.2155498777789</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552648</v>
+        <v>91.22261154552649</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J18" t="n">
-        <v>64.44012080218278</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5609355829245</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2955863295093</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1355.939888018875</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.584189708241</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O18" t="n">
-        <v>2207.528461692882</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P18" t="n">
-        <v>2561.015743133627</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q18" t="n">
         <v>2608.663845209559</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>228.8226267515069</v>
+        <v>536.6165620960074</v>
       </c>
       <c r="C19" t="n">
-        <v>213.6947906124286</v>
+        <v>521.4887259569292</v>
       </c>
       <c r="D19" t="n">
-        <v>213.6947906124286</v>
+        <v>521.4887259569292</v>
       </c>
       <c r="E19" t="n">
-        <v>213.6947906124286</v>
+        <v>373.5756323745361</v>
       </c>
       <c r="F19" t="n">
-        <v>66.80484311451826</v>
+        <v>226.6856848766257</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
         <v>612.3032901696349</v>
@@ -5698,25 +5698,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S19" t="n">
-        <v>998.2066746543578</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T19" t="n">
-        <v>927.0990796879752</v>
+        <v>1080.907426476804</v>
       </c>
       <c r="U19" t="n">
-        <v>788.1214927108269</v>
+        <v>945.5727022254282</v>
       </c>
       <c r="V19" t="n">
-        <v>687.2453512937687</v>
+        <v>844.69656080837</v>
       </c>
       <c r="W19" t="n">
-        <v>551.6365280456367</v>
+        <v>709.087737560238</v>
       </c>
       <c r="X19" t="n">
-        <v>477.4553239364481</v>
+        <v>634.9065334510493</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.4710915817466</v>
+        <v>564.4566801374185</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831344</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.298906679761</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618392</v>
+        <v>964.8415548618397</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524237</v>
+        <v>732.8616490524241</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516448</v>
+        <v>475.6840910516453</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J20" t="n">
         <v>271.7700750181468</v>
       </c>
       <c r="K20" t="n">
-        <v>400.7295965957233</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L20" t="n">
-        <v>597.6170483515891</v>
+        <v>918.5210067970419</v>
       </c>
       <c r="M20" t="n">
-        <v>965.0668044781449</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.711106167511</v>
+        <v>1428.68145332571</v>
       </c>
       <c r="O20" t="n">
-        <v>1842.334812505069</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P20" t="n">
-        <v>2324.10000729115</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q20" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R20" t="n">
         <v>2608.663845209559</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305907</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494637</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882124</v>
       </c>
       <c r="E21" t="n">
         <v>473.9923896827569</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096419</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777789</v>
+        <v>190.215549877779</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552648</v>
+        <v>91.22261154552659</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
       </c>
       <c r="K21" t="n">
-        <v>288.3910605699292</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L21" t="n">
-        <v>835.1257113165141</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1480.77001300588</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N21" t="n">
-        <v>1730.182902564832</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O21" t="n">
-        <v>1936.127174549473</v>
+        <v>2099.782233787955</v>
       </c>
       <c r="P21" t="n">
-        <v>2397.360683895146</v>
+        <v>2561.015743133628</v>
       </c>
       <c r="Q21" t="n">
         <v>2608.663845209559</v>
@@ -5862,7 +5862,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U21" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V21" t="n">
         <v>1794.681776349347</v>
@@ -5871,7 +5871,7 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415613</v>
       </c>
       <c r="Y21" t="n">
         <v>1124.832620650659</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.0821830549368</v>
+        <v>88.0051742268753</v>
       </c>
       <c r="C22" t="n">
-        <v>371.1460001270299</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="D22" t="n">
-        <v>371.1460001270299</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="E22" t="n">
-        <v>371.1460001270299</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="F22" t="n">
-        <v>224.2560526291195</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="G22" t="n">
-        <v>55.81613962996377</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="H22" t="n">
-        <v>55.81613962996377</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="I22" t="n">
-        <v>52.17327690419117</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419118</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L22" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
         <v>612.3032901696349</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S22" t="n">
-        <v>1152.015021443186</v>
+        <v>875.234583364756</v>
       </c>
       <c r="T22" t="n">
-        <v>1080.907426476804</v>
+        <v>782.6387644375708</v>
       </c>
       <c r="U22" t="n">
-        <v>945.5727022254282</v>
+        <v>647.3040401861953</v>
       </c>
       <c r="V22" t="n">
-        <v>844.69656080837</v>
+        <v>546.4278987691371</v>
       </c>
       <c r="W22" t="n">
-        <v>709.087737560238</v>
+        <v>257.0107287321765</v>
       </c>
       <c r="X22" t="n">
-        <v>634.9065334510493</v>
+        <v>182.8295246229878</v>
       </c>
       <c r="Y22" t="n">
-        <v>567.9223010963478</v>
+        <v>115.8452922682863</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.84155486184</v>
+        <v>964.8415548618406</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524246</v>
+        <v>732.861649052425</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516457</v>
+        <v>475.6840910516462</v>
       </c>
       <c r="G23" t="n">
         <v>212.7768023476407</v>
@@ -5987,28 +5987,28 @@
         <v>52.17327690419118</v>
       </c>
       <c r="J23" t="n">
-        <v>271.7700750181468</v>
+        <v>104.3644259977937</v>
       </c>
       <c r="K23" t="n">
-        <v>721.6335550411764</v>
+        <v>233.3239475753701</v>
       </c>
       <c r="L23" t="n">
-        <v>918.5210067970422</v>
+        <v>430.2113993312358</v>
       </c>
       <c r="M23" t="n">
-        <v>1169.265670470108</v>
+        <v>1075.855701020602</v>
       </c>
       <c r="N23" t="n">
-        <v>1428.681453325711</v>
+        <v>1420.999133271619</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.33481250507</v>
+        <v>2029.615019059296</v>
       </c>
       <c r="P23" t="n">
-        <v>2324.10000729115</v>
+        <v>2511.380213845376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209559</v>
+        <v>2585.752211010479</v>
       </c>
       <c r="R23" t="n">
         <v>2608.663845209559</v>
@@ -6017,22 +6017,22 @@
         <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.301400566262</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801901</v>
       </c>
       <c r="V23" t="n">
         <v>2272.193275247158</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765873</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.575555293622</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106639</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>327.4578317096414</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H24" t="n">
         <v>91.22261154552649</v>
@@ -6066,34 +6066,34 @@
         <v>52.17327690419118</v>
       </c>
       <c r="J24" t="n">
-        <v>64.44012080218279</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K24" t="n">
-        <v>425.3815202253772</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L24" t="n">
-        <v>972.1161709719621</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M24" t="n">
-        <v>1563.471801067486</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N24" t="n">
-        <v>2209.116102756851</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O24" t="n">
-        <v>2415.060374741493</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P24" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q24" t="n">
         <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063509</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S24" t="n">
-        <v>2454.146291745246</v>
+        <v>2454.146291745245</v>
       </c>
       <c r="T24" t="n">
         <v>2257.959572345653</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.93267925359653</v>
+        <v>386.2738362661082</v>
       </c>
       <c r="C25" t="n">
-        <v>66.80484311451828</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80484311451828</v>
+        <v>217.3376533382013</v>
       </c>
       <c r="E25" t="n">
-        <v>66.80484311451828</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="F25" t="n">
-        <v>66.80484311451828</v>
+        <v>72.87733808779704</v>
       </c>
       <c r="G25" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="H25" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746995</v>
       </c>
       <c r="J25" t="n">
         <v>52.17327690419118</v>
@@ -6151,13 +6151,13 @@
         <v>172.2297205752297</v>
       </c>
       <c r="L25" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N25" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O25" t="n">
         <v>1040.383889539601</v>
@@ -6169,28 +6169,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R25" t="n">
-        <v>1079.765698526274</v>
+        <v>1202.737789815875</v>
       </c>
       <c r="S25" t="n">
-        <v>1029.042930153585</v>
+        <v>998.2066746543578</v>
       </c>
       <c r="T25" t="n">
-        <v>930.3746162531207</v>
+        <v>927.0990796879752</v>
       </c>
       <c r="U25" t="n">
-        <v>795.0398920017452</v>
+        <v>791.7643554365997</v>
       </c>
       <c r="V25" t="n">
-        <v>540.3554037958584</v>
+        <v>690.8882140195415</v>
       </c>
       <c r="W25" t="n">
-        <v>404.7465805477264</v>
+        <v>555.2793907714095</v>
       </c>
       <c r="X25" t="n">
-        <v>330.5653764385377</v>
+        <v>481.0981866622208</v>
       </c>
       <c r="Y25" t="n">
-        <v>263.5811440838363</v>
+        <v>414.1139543075193</v>
       </c>
     </row>
     <row r="26">
@@ -6215,43 +6215,43 @@
         <v>667.5243135124642</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899921</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807564</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J26" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>730.184417722307</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L26" t="n">
-        <v>1340.556471883119</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.319533714088</v>
+        <v>1603.990600672099</v>
       </c>
       <c r="N26" t="n">
-        <v>2295.735316569691</v>
+        <v>2272.823682370611</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.351202357368</v>
+        <v>2881.439568158287</v>
       </c>
       <c r="P26" t="n">
-        <v>3386.116397143448</v>
+        <v>3363.204762944368</v>
       </c>
       <c r="Q26" t="n">
-        <v>3670.680235061857</v>
+        <v>3647.768600862776</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S26" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173524</v>
       </c>
       <c r="T26" t="n">
         <v>3471.349756211759</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C27" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D27" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E27" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F27" t="n">
         <v>348.6981595066878</v>
@@ -6297,28 +6297,28 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H27" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J27" t="n">
-        <v>85.68044859922875</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K27" t="n">
-        <v>184.8012633799704</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L27" t="n">
-        <v>364.4039722761307</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.396743530217</v>
+        <v>1591.019844910983</v>
       </c>
       <c r="N27" t="n">
-        <v>1778.358583689288</v>
+        <v>1840.432734469935</v>
       </c>
       <c r="O27" t="n">
-        <v>2374.226551757891</v>
+        <v>2436.300702538538</v>
       </c>
       <c r="P27" t="n">
         <v>2582.256070930674</v>
@@ -6345,10 +6345,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X27" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385461</v>
+        <v>474.310037138546</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965711</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E28" t="n">
         <v>337.8553710845387</v>
@@ -6376,43 +6376,43 @@
         <v>184.1005775281941</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832357</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575665</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268921</v>
+        <v>634.2153292268919</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605729</v>
+        <v>944.3114118605727</v>
       </c>
       <c r="N28" t="n">
-        <v>1254.351439301971</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O28" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P28" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q28" t="n">
         <v>1851.465357724015</v>
       </c>
       <c r="R28" t="n">
-        <v>1809.280799904774</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S28" t="n">
         <v>1685.537218213617</v>
       </c>
       <c r="T28" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U28" t="n">
         <v>1333.053272358923</v>
@@ -6421,13 +6421,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567971</v>
+        <v>950.5266810567969</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291406</v>
+        <v>803.3246636291403</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559714</v>
+        <v>663.319617955971</v>
       </c>
     </row>
     <row r="29">
@@ -6446,58 +6446,58 @@
         <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317118</v>
+        <v>997.7226848317115</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124647</v>
       </c>
       <c r="G29" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899926</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807568</v>
+        <v>97.97187272807565</v>
       </c>
       <c r="I29" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J29" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K29" t="n">
-        <v>742.8738828382222</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L29" t="n">
-        <v>1353.245936999034</v>
+        <v>939.7613345940879</v>
       </c>
       <c r="M29" t="n">
-        <v>2049.008998830003</v>
+        <v>1635.524396425057</v>
       </c>
       <c r="N29" t="n">
-        <v>2483.015523123918</v>
+        <v>2272.823682370611</v>
       </c>
       <c r="O29" t="n">
-        <v>3091.631408911594</v>
+        <v>2881.439568158287</v>
       </c>
       <c r="P29" t="n">
-        <v>3573.396603697674</v>
+        <v>3363.204762944368</v>
       </c>
       <c r="Q29" t="n">
-        <v>3647.768600862777</v>
+        <v>3647.768600862776</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S29" t="n">
-        <v>3603.733014173526</v>
+        <v>3603.733014173524</v>
       </c>
       <c r="T29" t="n">
         <v>3471.34975621176</v>
       </c>
       <c r="U29" t="n">
-        <v>3298.475358128931</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W29" t="n">
         <v>2776.218882455967</v>
@@ -6506,7 +6506,7 @@
         <v>2483.540657665248</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159796</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C30" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D30" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E30" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F30" t="n">
         <v>348.6981595066878</v>
@@ -6534,31 +6534,31 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H30" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I30" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J30" t="n">
-        <v>210.5105735862335</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K30" t="n">
-        <v>571.451973009428</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L30" t="n">
         <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>1808.1793950101</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N30" t="n">
-        <v>2057.592284569052</v>
+        <v>1596.544271456551</v>
       </c>
       <c r="O30" t="n">
-        <v>2263.536556553693</v>
+        <v>1913.04604672651</v>
       </c>
       <c r="P30" t="n">
-        <v>2582.256070930674</v>
+        <v>2374.279556072183</v>
       </c>
       <c r="Q30" t="n">
         <v>2629.904173006605</v>
@@ -6582,10 +6582,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X30" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960925</v>
+        <v>562.4586865960923</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385463</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965713</v>
+        <v>404.9809311965711</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845389</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569893</v>
+        <v>271.7529570569891</v>
       </c>
       <c r="G31" t="n">
         <v>184.1005775281942</v>
@@ -6616,10 +6616,10 @@
         <v>112.1176451832358</v>
       </c>
       <c r="I31" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K31" t="n">
         <v>345.8781191575662</v>
@@ -6628,7 +6628,7 @@
         <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605724</v>
+        <v>944.3114118605725</v>
       </c>
       <c r="N31" t="n">
         <v>1254.35143930197</v>
@@ -6637,7 +6637,7 @@
         <v>1530.75173433914</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q31" t="n">
         <v>1851.465357724015</v>
@@ -6658,13 +6658,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.526681056797</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291403</v>
+        <v>803.3246636291406</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559716</v>
+        <v>663.3196179559712</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1868.376552566037</v>
+        <v>1868.376552566036</v>
       </c>
       <c r="C32" t="n">
-        <v>1580.201569095986</v>
+        <v>1580.201569095985</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317127</v>
+        <v>997.7226848317118</v>
       </c>
       <c r="F32" t="n">
-        <v>667.5243135124658</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899935</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807575</v>
+        <v>97.9718727280756</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J32" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>742.8738828382222</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L32" t="n">
-        <v>1353.245936999034</v>
+        <v>939.7613345940879</v>
       </c>
       <c r="M32" t="n">
-        <v>1603.990600672099</v>
+        <v>1635.524396425057</v>
       </c>
       <c r="N32" t="n">
-        <v>2272.823682370612</v>
+        <v>2272.823682370611</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158288</v>
+        <v>2881.439568158287</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944369</v>
+        <v>3363.204762944368</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3647.768600862776</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061857</v>
+        <v>3670.680235061856</v>
       </c>
       <c r="S32" t="n">
-        <v>3603.733014173526</v>
+        <v>3603.733014173525</v>
       </c>
       <c r="T32" t="n">
         <v>3471.34975621176</v>
       </c>
       <c r="U32" t="n">
-        <v>3298.475358128932</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V32" t="n">
-        <v>3048.200004255722</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W32" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X32" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y32" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
@@ -6771,25 +6771,25 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J33" t="n">
-        <v>85.68044859922875</v>
+        <v>210.5105735862334</v>
       </c>
       <c r="K33" t="n">
-        <v>292.0857802107823</v>
+        <v>571.4519730094279</v>
       </c>
       <c r="L33" t="n">
-        <v>838.8204309573672</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1067.765189098954</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N33" t="n">
-        <v>1317.178078657906</v>
+        <v>1596.544271456551</v>
       </c>
       <c r="O33" t="n">
         <v>1913.04604672651</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960929</v>
+        <v>562.4586865960919</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385466</v>
+        <v>474.3100371385458</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965715</v>
+        <v>404.9809311965709</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845391</v>
+        <v>337.8553710845386</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569894</v>
+        <v>271.752957056989</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281944</v>
+        <v>184.1005775281941</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832359</v>
+        <v>112.1176451832357</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123712</v>
       </c>
       <c r="J34" t="n">
-        <v>146.6418139322271</v>
+        <v>146.6418139322272</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575663</v>
       </c>
       <c r="L34" t="n">
-        <v>634.2153292268918</v>
+        <v>634.215329226892</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605739</v>
+        <v>944.311411860572</v>
       </c>
       <c r="N34" t="n">
-        <v>1254.351439301972</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O34" t="n">
-        <v>1530.751734339141</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P34" t="n">
-        <v>1755.167065391862</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q34" t="n">
-        <v>1851.465357724016</v>
+        <v>1851.465357724014</v>
       </c>
       <c r="R34" t="n">
-        <v>1809.280799904775</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S34" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T34" t="n">
-        <v>1541.408809928768</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.053272358924</v>
+        <v>1333.053272358923</v>
       </c>
       <c r="V34" t="n">
-        <v>1159.156317623398</v>
+        <v>1159.156317623396</v>
       </c>
       <c r="W34" t="n">
-        <v>950.526681056798</v>
+        <v>950.5266810567966</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291414</v>
+        <v>803.3246636291401</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.3196179559719</v>
+        <v>663.3196179559708</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.950839227094</v>
+        <v>1688.950839227093</v>
       </c>
       <c r="C35" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D35" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9717755732851</v>
+        <v>891.9717755732846</v>
       </c>
       <c r="F35" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G35" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852427</v>
       </c>
       <c r="H35" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I35" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4925656641198</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K35" t="n">
         <v>735.3560456871492</v>
@@ -6944,13 +6944,13 @@
         <v>1345.728099847961</v>
       </c>
       <c r="M35" t="n">
-        <v>1596.472763521026</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N35" t="n">
         <v>1896.93182481696</v>
       </c>
       <c r="O35" t="n">
-        <v>2505.547710604637</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P35" t="n">
         <v>2987.312905390717</v>
@@ -6959,7 +6959,7 @@
         <v>3271.876743309126</v>
       </c>
       <c r="R35" t="n">
-        <v>3294.788377508206</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="S35" t="n">
         <v>3252.399424646713</v>
@@ -6968,19 +6968,19 @@
         <v>3144.574434711786</v>
       </c>
       <c r="U35" t="n">
-        <v>2996.258304655796</v>
+        <v>2996.258304655795</v>
       </c>
       <c r="V35" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W35" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X35" t="n">
-        <v>2254.998408272629</v>
+        <v>2254.998408272628</v>
       </c>
       <c r="Y35" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I36" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J36" t="n">
         <v>202.9927364351605</v>
       </c>
       <c r="K36" t="n">
-        <v>302.1135512159021</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L36" t="n">
-        <v>481.7162601120624</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M36" t="n">
-        <v>1171.709031366149</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N36" t="n">
-        <v>1895.670871525219</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O36" t="n">
-        <v>2101.61514350986</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P36" t="n">
-        <v>2562.848652855534</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q36" t="n">
         <v>2622.386335855532</v>
@@ -7090,28 +7090,28 @@
         <v>80.04154000532425</v>
       </c>
       <c r="I37" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J37" t="n">
-        <v>163.1935352742586</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K37" t="n">
-        <v>283.2499789452972</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L37" t="n">
-        <v>492.4073274603222</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M37" t="n">
-        <v>826.5729685871074</v>
+        <v>626.0257808156077</v>
       </c>
       <c r="N37" t="n">
-        <v>1057.433134474205</v>
+        <v>884.9420582895726</v>
       </c>
       <c r="O37" t="n">
-        <v>1254.653567957073</v>
+        <v>1185.411911819846</v>
       </c>
       <c r="P37" t="n">
-        <v>1399.889037455494</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q37" t="n">
         <v>1451.015232143526</v>
@@ -7178,19 +7178,19 @@
         <v>735.3560456871492</v>
       </c>
       <c r="L38" t="n">
-        <v>932.243497443015</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M38" t="n">
-        <v>1414.734427546798</v>
+        <v>1637.516041961358</v>
       </c>
       <c r="N38" t="n">
-        <v>2107.123665570266</v>
+        <v>1896.931824816961</v>
       </c>
       <c r="O38" t="n">
-        <v>2715.739551357943</v>
+        <v>2505.547710604637</v>
       </c>
       <c r="P38" t="n">
-        <v>3197.504746144023</v>
+        <v>2987.312905390718</v>
       </c>
       <c r="Q38" t="n">
         <v>3271.876743309126</v>
@@ -7199,13 +7199,13 @@
         <v>3294.788377508206</v>
       </c>
       <c r="S38" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646713</v>
       </c>
       <c r="T38" t="n">
         <v>3144.574434711786</v>
       </c>
       <c r="U38" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V38" t="n">
         <v>2770.541218809424</v>
@@ -7214,7 +7214,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X38" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y38" t="n">
         <v>1970.204877794016</v>
@@ -7239,10 +7239,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556147</v>
+        <v>341.1803223556148</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237518</v>
+        <v>203.9380405237519</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
@@ -7251,25 +7251,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16261144815573</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K39" t="n">
-        <v>439.1040108713502</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L39" t="n">
-        <v>618.7067197675104</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M39" t="n">
-        <v>1183.598612290216</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N39" t="n">
-        <v>1907.560452449287</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.504724433928</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P39" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7324,31 +7324,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532425</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I40" t="n">
         <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>65.89576755016412</v>
+        <v>93.95187913703168</v>
       </c>
       <c r="K40" t="n">
-        <v>185.9522112212027</v>
+        <v>214.0083228080702</v>
       </c>
       <c r="L40" t="n">
-        <v>498.3589797836327</v>
+        <v>526.4150913705002</v>
       </c>
       <c r="M40" t="n">
-        <v>729.2752008630129</v>
+        <v>757.3313124498804</v>
       </c>
       <c r="N40" t="n">
-        <v>960.1353667501103</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O40" t="n">
-        <v>1260.605220280384</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P40" t="n">
-        <v>1405.840689778804</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q40" t="n">
         <v>1451.015232143526</v>
@@ -7388,43 +7388,43 @@
         <v>1688.950839227094</v>
       </c>
       <c r="C41" t="n">
-        <v>1425.334123783882</v>
+        <v>1425.334123783881</v>
       </c>
       <c r="D41" t="n">
         <v>1172.41422667433</v>
       </c>
       <c r="E41" t="n">
-        <v>891.9717755732854</v>
+        <v>891.9717755732853</v>
       </c>
       <c r="F41" t="n">
-        <v>586.3316722808775</v>
+        <v>586.331672280877</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852434</v>
       </c>
       <c r="H41" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I41" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4925656641198</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K41" t="n">
-        <v>414.4520872416962</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L41" t="n">
-        <v>611.339538997562</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M41" t="n">
-        <v>1307.102600828531</v>
+        <v>1596.472763521026</v>
       </c>
       <c r="N41" t="n">
-        <v>1999.491838851999</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O41" t="n">
-        <v>2505.547710604637</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P41" t="n">
         <v>2987.312905390717</v>
@@ -7433,16 +7433,16 @@
         <v>3271.876743309126</v>
       </c>
       <c r="R41" t="n">
-        <v>3294.788377508206</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646713</v>
+        <v>3252.399424646712</v>
       </c>
       <c r="T41" t="n">
         <v>3144.574434711786</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V41" t="n">
         <v>2770.541218809424</v>
@@ -7485,28 +7485,28 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I42" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J42" t="n">
-        <v>78.16261144815573</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K42" t="n">
-        <v>439.1040108713502</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L42" t="n">
-        <v>618.7067197675104</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1108.953057159792</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N42" t="n">
-        <v>1832.914897318862</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O42" t="n">
-        <v>2428.782865387465</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P42" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571491</v>
+        <v>383.0329732571498</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264415</v>
+        <v>319.4425918264421</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113051</v>
+        <v>274.6717539113056</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261114</v>
+        <v>232.1044618261118</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254004</v>
+        <v>190.5603158254007</v>
       </c>
       <c r="G43" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234442</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532418</v>
+        <v>80.04154000532428</v>
       </c>
       <c r="I43" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J43" t="n">
-        <v>93.95187913703015</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K43" t="n">
-        <v>214.0083228080687</v>
+        <v>289.2016312686076</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1656713230938</v>
+        <v>498.3589797836326</v>
       </c>
       <c r="M43" t="n">
-        <v>654.081892402474</v>
+        <v>729.2752008630127</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369765</v>
+        <v>1063.384786797515</v>
       </c>
       <c r="O43" t="n">
-        <v>1185.411911819845</v>
+        <v>1288.661331867252</v>
       </c>
       <c r="P43" t="n">
-        <v>1433.89680136567</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143524</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R43" t="n">
-        <v>1433.388942351122</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S43" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U43" t="n">
-        <v>1030.836218885787</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321770995</v>
+        <v>881.4975321771007</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373383</v>
+        <v>697.4261636373393</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365203</v>
+        <v>574.7824142365212</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901894</v>
+        <v>459.3356365901903</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>891.9717755732845</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G44" t="n">
         <v>274.9618382852429</v>
       </c>
       <c r="H44" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I44" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J44" t="n">
-        <v>118.0869166437667</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K44" t="n">
-        <v>567.9503966667962</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.322450827608</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M44" t="n">
-        <v>1429.067114500673</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N44" t="n">
-        <v>2121.456352524141</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O44" t="n">
-        <v>2505.547710604637</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P44" t="n">
         <v>2987.312905390717</v>
@@ -7670,13 +7670,13 @@
         <v>3271.876743309126</v>
       </c>
       <c r="R44" t="n">
-        <v>3294.788377508206</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="S44" t="n">
-        <v>3252.399424646713</v>
+        <v>3252.399424646712</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711785</v>
       </c>
       <c r="U44" t="n">
         <v>2996.258304655795</v>
@@ -7722,28 +7722,28 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I45" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J45" t="n">
-        <v>78.16261144815573</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K45" t="n">
-        <v>439.1040108713502</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L45" t="n">
-        <v>618.7067197675104</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.247351947881</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.660241506833</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O45" t="n">
         <v>1905.528209575437</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.76171892111</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571496</v>
+        <v>383.0329732571495</v>
       </c>
       <c r="C46" t="n">
-        <v>319.442591826442</v>
+        <v>319.4425918264419</v>
       </c>
       <c r="D46" t="n">
-        <v>274.6717539113055</v>
+        <v>274.6717539113054</v>
       </c>
       <c r="E46" t="n">
-        <v>232.1044618261117</v>
+        <v>232.1044618261116</v>
       </c>
       <c r="F46" t="n">
         <v>190.5603158254006</v>
@@ -7798,31 +7798,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532425</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I46" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J46" t="n">
-        <v>93.9518791370314</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="K46" t="n">
-        <v>214.0083228080699</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L46" t="n">
-        <v>423.165671323095</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M46" t="n">
-        <v>654.0818924024752</v>
+        <v>729.2752008630127</v>
       </c>
       <c r="N46" t="n">
-        <v>988.1914783369776</v>
+        <v>960.1353667501102</v>
       </c>
       <c r="O46" t="n">
-        <v>1185.411911819846</v>
+        <v>1157.355800232979</v>
       </c>
       <c r="P46" t="n">
-        <v>1330.647381318267</v>
+        <v>1405.840689778804</v>
       </c>
       <c r="Q46" t="n">
         <v>1451.015232143526</v>
@@ -7840,16 +7840,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321771002</v>
+        <v>881.4975321771001</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373388</v>
+        <v>697.4261636373387</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365208</v>
+        <v>574.7824142365207</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.33563659019</v>
+        <v>459.3356365901899</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>120.8859883122025</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>283.5874716269815</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542708</v>
+        <v>65.63520913263335</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>87.46116508393192</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>267.0033956675394</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>240.3957561842256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>204.30404458271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>339.5285581721625</v>
+        <v>398.8885232487886</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>371.5312601316712</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>366.0715878322589</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>400.2337496266802</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>263.8374820957211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038004</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>160.7252713562843</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>420.9086298462415</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>400.2337496266802</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P18" t="n">
-        <v>209.6281949985958</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>117.8839317712026</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1298170038004</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>160.7252713562843</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>420.9086298462415</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>321.7515334785942</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.3081406449305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>398.8885232487886</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>86.59358524789309</v>
       </c>
       <c r="O23" t="n">
-        <v>183.8683362038387</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>366.0715878322594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>400.2337496266803</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,16 +9875,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>311.3277710399372</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>413.5528271140494</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>246.3519828418017</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>62.70116240469417</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>176.3542842811224</v>
+        <v>381.7005081716674</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P30" t="n">
-        <v>174.5092383685302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>413.5528271140498</v>
+        <v>381.7005081716674</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.3681988190019</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>41.45785701043494</v>
       </c>
       <c r="N35" t="n">
-        <v>41.45785701043513</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.00967770107803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,13 +10826,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>234.0871378088061</v>
+        <v>41.45785701043584</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>339.3405397789083</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>41.45785701043496</v>
       </c>
       <c r="O41" t="n">
-        <v>277.204207489979</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>263.9409891421158</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>41.45785701043494</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>154.00772903327</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>214.7433071098828</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879133</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>50.11223965156557</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548103</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>233.8441915268611</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.86878149913299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201118</v>
+        <v>68.83384483201115</v>
       </c>
       <c r="T11" t="n">
         <v>133.6155215347106</v>
@@ -23315,16 +23315,16 @@
         <v>173.7017502545638</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343188</v>
+        <v>56.6868833624371</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.93937715402071</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.93937715402107</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.402177185648243</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>233.8441915268611</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>26.86878149913299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.83384483201115</v>
       </c>
       <c r="T14" t="n">
         <v>133.6155215347106</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545638</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343188</v>
+        <v>4.425488962092601</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.3075386953748</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.93937715402085</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>60.93937715401981</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.488243368240514e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1304699.246044573</v>
+        <v>1304699.246044574</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>61445.72540377788</v>
+      </c>
+      <c r="C2" t="n">
+        <v>61445.72540377788</v>
+      </c>
+      <c r="D2" t="n">
         <v>61445.72540377787</v>
       </c>
-      <c r="C2" t="n">
-        <v>61445.72540377786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61445.72540377788</v>
-      </c>
       <c r="E2" t="n">
-        <v>50367.78798383545</v>
+        <v>50367.78798383546</v>
       </c>
       <c r="F2" t="n">
-        <v>55088.24469091687</v>
+        <v>55088.24469091689</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.13273982123</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982121</v>
-      </c>
       <c r="L2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982114</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982119</v>
@@ -26353,7 +26353,7 @@
         <v>61578.1327398212</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.1327398212</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898887</v>
+        <v>58378.43698898888</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027688</v>
+        <v>59877.36107027686</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.9195148775</v>
+        <v>73573.91951487746</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.36107027682</v>
+        <v>59877.3610702769</v>
       </c>
       <c r="M3" t="n">
         <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.82011545926</v>
+        <v>49902.82011545928</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248872</v>
+        <v>4106.365438248838</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>132767.5489705623</v>
+        <v>132767.5489705624</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879656</v>
+        <v>153149.3497879657</v>
       </c>
       <c r="G4" t="n">
-        <v>202349.5883717044</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="H4" t="n">
         <v>202349.5883717045</v>
@@ -26439,22 +26439,22 @@
         <v>202349.5883717045</v>
       </c>
       <c r="J4" t="n">
-        <v>189330.9659432833</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="K4" t="n">
         <v>189330.9659432834</v>
       </c>
       <c r="L4" t="n">
-        <v>189330.9659432833</v>
+        <v>189330.9659432834</v>
       </c>
       <c r="M4" t="n">
         <v>193885.545962394</v>
       </c>
       <c r="N4" t="n">
+        <v>193885.5459623941</v>
+      </c>
+      <c r="O4" t="n">
         <v>193885.545962394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>193885.5459623941</v>
       </c>
       <c r="P4" t="n">
         <v>193885.545962394</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48708.52866658146</v>
+        <v>48708.52866658148</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.2664946687</v>
+        <v>61096.26649466871</v>
       </c>
       <c r="G5" t="n">
         <v>67388.55382944009</v>
@@ -26491,13 +26491,13 @@
         <v>67388.55382944009</v>
       </c>
       <c r="J5" t="n">
-        <v>77453.80406787345</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="K5" t="n">
-        <v>77453.80406787345</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="L5" t="n">
-        <v>77453.80406787344</v>
+        <v>77453.80406787343</v>
       </c>
       <c r="M5" t="n">
         <v>73784.19097745875</v>
@@ -26506,7 +26506,7 @@
         <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
-        <v>73784.19097745875</v>
+        <v>73784.19097745874</v>
       </c>
       <c r="P5" t="n">
         <v>73784.19097745875</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-403080.384038898</v>
+        <v>-403084.7976167661</v>
       </c>
       <c r="C6" t="n">
-        <v>-403080.384038898</v>
+        <v>-403084.7976167661</v>
       </c>
       <c r="D6" t="n">
-        <v>-403080.3840388979</v>
+        <v>-403084.7976167661</v>
       </c>
       <c r="E6" t="n">
-        <v>-877364.4540699474</v>
+        <v>-877738.1322284802</v>
       </c>
       <c r="F6" t="n">
-        <v>-217535.8085807063</v>
+        <v>-217752.1381823366</v>
       </c>
       <c r="G6" t="n">
-        <v>-268037.3705316001</v>
+        <v>-268037.3705316002</v>
       </c>
       <c r="H6" t="n">
-        <v>-208160.0094613233</v>
+        <v>-208160.0094613234</v>
       </c>
       <c r="I6" t="n">
         <v>-208160.0094613233</v>
@@ -26549,19 +26549,19 @@
         <v>-205206.6372713356</v>
       </c>
       <c r="L6" t="n">
-        <v>-265083.9983416124</v>
+        <v>-265083.9983416126</v>
       </c>
       <c r="M6" t="n">
         <v>-313871.4396573659</v>
       </c>
       <c r="N6" t="n">
-        <v>-255994.4243154908</v>
+        <v>-255994.4243154909</v>
       </c>
       <c r="O6" t="n">
-        <v>-210197.9696382805</v>
+        <v>-210197.9696382803</v>
       </c>
       <c r="P6" t="n">
-        <v>-206091.6042000315</v>
+        <v>-206091.6042000316</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G2" t="n">
         <v>152.2702633209404</v>
@@ -26707,13 +26707,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="J2" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26722,7 +26722,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="O2" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="P2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="K3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404286</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023896</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="I4" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
-        <v>917.6700587654643</v>
+        <v>917.670058765464</v>
       </c>
       <c r="K4" t="n">
-        <v>917.6700587654643</v>
+        <v>917.670058765464</v>
       </c>
       <c r="L4" t="n">
-        <v>917.6700587654643</v>
+        <v>917.670058765464</v>
       </c>
       <c r="M4" t="n">
-        <v>823.6970943770515</v>
+        <v>823.6970943770514</v>
       </c>
       <c r="N4" t="n">
         <v>823.6970943770515</v>
       </c>
       <c r="O4" t="n">
-        <v>823.6970943770515</v>
+        <v>823.6970943770514</v>
       </c>
       <c r="P4" t="n">
-        <v>823.6970943770515</v>
+        <v>823.6970943770514</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.8467013378461</v>
+        <v>74.84670133784607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811019</v>
+        <v>5.132956797811076</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784603</v>
+        <v>74.84670133784613</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657023</v>
+        <v>24.31268534657009</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.13295679781109</v>
+        <v>5.132956797811048</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404286</v>
       </c>
       <c r="F4" t="n">
-        <v>203.7456879619611</v>
+        <v>203.7456879619612</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630746</v>
+        <v>265.5040974630742</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.4473089520157</v>
+        <v>354.447308952016</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619612</v>
+        <v>203.7456879619613</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.8467013378461</v>
+        <v>74.84670133784607</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811019</v>
+        <v>5.132956797811076</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>448.4202733404285</v>
+        <v>448.4202733404286</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619611</v>
+        <v>203.7456879619612</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55.2253667000081</v>
       </c>
       <c r="H12" t="n">
-        <v>46.56360608541861</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I12" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590023</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309429</v>
       </c>
     </row>
     <row r="17">
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C19" t="n">
         <v>152.2702633209404</v>
@@ -28728,13 +28728,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>151.2427611571659</v>
@@ -28743,7 +28743,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,13 +28770,13 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T19" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="U19" t="n">
-        <v>148.6638292224254</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V19" t="n">
         <v>152.2702633209404</v>
@@ -28788,7 +28788,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.2702633209404</v>
+        <v>148.8392985716003</v>
       </c>
     </row>
     <row r="20">
@@ -28959,7 +28959,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28968,19 +28968,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H22" t="n">
         <v>151.2427611571659</v>
       </c>
       <c r="I22" t="n">
-        <v>114.6902241143209</v>
+        <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2702633209404</v>
+        <v>130.9969215997459</v>
       </c>
       <c r="U22" t="n">
         <v>152.2702633209404</v>
@@ -29019,7 +29019,7 @@
         <v>152.2702633209404</v>
       </c>
       <c r="W22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>152.2702633209404</v>
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C25" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>3.418250548668937</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29217,7 +29217,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,19 +29241,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>152.2702633209404</v>
-      </c>
-      <c r="T25" t="n">
-        <v>124.9851515761997</v>
       </c>
       <c r="U25" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W25" t="n">
         <v>152.2702633209404</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="U26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="C28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="D28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="F28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="H28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="I28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="J28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="L28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="M28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="N28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="O28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="P28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="R28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="U28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="V28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="W28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565715</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565712</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565855</v>
+        <v>79.97965813565642</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565705</v>
+        <v>79.97965813565719</v>
       </c>
     </row>
     <row r="35">
@@ -30165,28 +30165,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
+        <v>6.011770023545978</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>28.33950665340151</v>
+      </c>
+      <c r="O37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>34.35127667694728</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>104.2923434822273</v>
@@ -30402,7 +30402,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>6.011770023545964</v>
+        <v>34.35127667694755</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,16 +30414,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.33950665340127</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>104.2923434822273</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="C41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="D41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="E41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="F41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="G41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="H41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="I41" t="n">
         <v>104.2923434822273</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="T41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="U41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="V41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="W41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="X41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
     </row>
     <row r="42">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="C43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="D43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="E43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="G43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="I43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J43" t="n">
-        <v>34.35127667694599</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,40 +30651,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>28.33950665340211</v>
       </c>
       <c r="P43" t="n">
-        <v>104.2923434822274</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="S43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="T43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="U43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="V43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="W43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="X43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.2923434822274</v>
+        <v>104.2923434822273</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>34.35127667694725</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,19 +30885,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
-        <v>104.2923434822273</v>
+        <v>28.33950665340151</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -31753,7 +31753,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I11" t="n">
         <v>106.1835460881786</v>
@@ -31762,34 +31762,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M11" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O11" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q11" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R11" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T11" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
         <v>0.2203406701784393</v>
@@ -31835,7 +31835,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I12" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J12" t="n">
         <v>139.2283780787794</v>
@@ -31847,10 +31847,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O12" t="n">
         <v>350.6207616006474</v>
@@ -31862,16 +31862,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S12" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
@@ -31929,7 +31929,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N13" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
         <v>174.6274311595649</v>
@@ -31947,10 +31947,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H14" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I14" t="n">
         <v>106.1835460881786</v>
@@ -31999,34 +31999,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K14" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L14" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M14" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O14" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q14" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R14" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T14" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U14" t="n">
         <v>0.2203406701784393</v>
@@ -32072,7 +32072,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I15" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J15" t="n">
         <v>139.2283780787794</v>
@@ -32084,10 +32084,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N15" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O15" t="n">
         <v>350.6207616006474</v>
@@ -32099,16 +32099,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S15" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
@@ -32166,7 +32166,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N16" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O16" t="n">
         <v>174.6274311595649</v>
@@ -32184,10 +32184,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H17" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I17" t="n">
         <v>106.1835460881786</v>
@@ -32236,34 +32236,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K17" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L17" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M17" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N17" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O17" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q17" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R17" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T17" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U17" t="n">
         <v>0.2203406701784393</v>
@@ -32309,7 +32309,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I18" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J18" t="n">
         <v>139.2283780787794</v>
@@ -32321,10 +32321,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N18" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O18" t="n">
         <v>350.6207616006474</v>
@@ -32336,16 +32336,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S18" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
@@ -32403,7 +32403,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N19" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O19" t="n">
         <v>174.6274311595649</v>
@@ -32421,10 +32421,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H20" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I20" t="n">
         <v>106.1835460881786</v>
@@ -32473,34 +32473,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K20" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M20" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N20" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O20" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q20" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R20" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T20" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U20" t="n">
         <v>0.2203406701784393</v>
@@ -32546,7 +32546,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I21" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J21" t="n">
         <v>139.2283780787794</v>
@@ -32558,10 +32558,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N21" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O21" t="n">
         <v>350.6207616006474</v>
@@ -32573,16 +32573,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S21" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
@@ -32640,7 +32640,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N22" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O22" t="n">
         <v>174.6274311595649</v>
@@ -32658,10 +32658,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I23" t="n">
         <v>106.1835460881786</v>
@@ -32710,34 +32710,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K23" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L23" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M23" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N23" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O23" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q23" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R23" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T23" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U23" t="n">
         <v>0.2203406701784393</v>
@@ -32783,7 +32783,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I24" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J24" t="n">
         <v>139.2283780787794</v>
@@ -32795,10 +32795,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N24" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O24" t="n">
         <v>350.6207616006474</v>
@@ -32810,16 +32810,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S24" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
@@ -32877,7 +32877,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N25" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O25" t="n">
         <v>174.6274311595649</v>
@@ -32895,10 +32895,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I26" t="n">
         <v>106.1835460881786</v>
@@ -32947,34 +32947,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L26" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M26" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O26" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q26" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R26" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T26" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
         <v>0.2203406701784393</v>
@@ -33020,7 +33020,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J27" t="n">
         <v>139.2283780787794</v>
@@ -33032,10 +33032,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N27" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O27" t="n">
         <v>350.6207616006474</v>
@@ -33047,16 +33047,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S27" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33114,7 +33114,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N28" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O28" t="n">
         <v>174.6274311595649</v>
@@ -33132,10 +33132,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H29" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I29" t="n">
         <v>106.1835460881786</v>
@@ -33184,34 +33184,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K29" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L29" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M29" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N29" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O29" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q29" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R29" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T29" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U29" t="n">
         <v>0.2203406701784393</v>
@@ -33257,7 +33257,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I30" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J30" t="n">
         <v>139.2283780787794</v>
@@ -33269,10 +33269,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M30" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N30" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O30" t="n">
         <v>350.6207616006474</v>
@@ -33284,16 +33284,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S30" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I31" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
@@ -33351,7 +33351,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N31" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O31" t="n">
         <v>174.6274311595649</v>
@@ -33369,10 +33369,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H32" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I32" t="n">
         <v>106.1835460881786</v>
@@ -33421,34 +33421,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K32" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L32" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M32" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O32" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R32" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T32" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U32" t="n">
         <v>0.2203406701784393</v>
@@ -33494,7 +33494,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I33" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J33" t="n">
         <v>139.2283780787794</v>
@@ -33506,10 +33506,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N33" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O33" t="n">
         <v>350.6207616006474</v>
@@ -33521,16 +33521,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S33" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
@@ -33588,7 +33588,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N34" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O34" t="n">
         <v>174.6274311595649</v>
@@ -33606,10 +33606,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H35" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I35" t="n">
         <v>106.1835460881786</v>
@@ -33658,34 +33658,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K35" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L35" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M35" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N35" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O35" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q35" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R35" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T35" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U35" t="n">
         <v>0.2203406701784393</v>
@@ -33731,7 +33731,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I36" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J36" t="n">
         <v>139.2283780787794</v>
@@ -33743,10 +33743,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N36" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O36" t="n">
         <v>350.6207616006474</v>
@@ -33758,16 +33758,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S36" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
@@ -33825,7 +33825,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N37" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O37" t="n">
         <v>174.6274311595649</v>
@@ -33843,10 +33843,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H38" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I38" t="n">
         <v>106.1835460881786</v>
@@ -33895,34 +33895,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K38" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L38" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M38" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N38" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O38" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q38" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R38" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T38" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U38" t="n">
         <v>0.2203406701784393</v>
@@ -33968,7 +33968,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J39" t="n">
         <v>139.2283780787794</v>
@@ -33980,10 +33980,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N39" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O39" t="n">
         <v>350.6207616006474</v>
@@ -33995,16 +33995,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S39" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
@@ -34062,7 +34062,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N40" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O40" t="n">
         <v>174.6274311595649</v>
@@ -34080,10 +34080,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H41" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I41" t="n">
         <v>106.1835460881786</v>
@@ -34132,34 +34132,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K41" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L41" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M41" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N41" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O41" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q41" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R41" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T41" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U41" t="n">
         <v>0.2203406701784393</v>
@@ -34205,7 +34205,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J42" t="n">
         <v>139.2283780787794</v>
@@ -34217,10 +34217,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N42" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O42" t="n">
         <v>350.6207616006474</v>
@@ -34232,16 +34232,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S42" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
@@ -34299,7 +34299,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N43" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O43" t="n">
         <v>174.6274311595649</v>
@@ -34317,10 +34317,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H44" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I44" t="n">
         <v>106.1835460881786</v>
@@ -34369,34 +34369,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M44" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O44" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R44" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T44" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
         <v>0.2203406701784393</v>
@@ -34442,7 +34442,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J45" t="n">
         <v>139.2283780787794</v>
@@ -34454,10 +34454,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N45" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O45" t="n">
         <v>350.6207616006474</v>
@@ -34469,16 +34469,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S45" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K46" t="n">
         <v>143.5386268471339</v>
@@ -34536,7 +34536,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N46" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O46" t="n">
         <v>174.6274311595649</v>
@@ -34554,10 +34554,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K11" t="n">
         <v>130.2621430076529</v>
       </c>
       <c r="L11" t="n">
-        <v>198.876213894814</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>253.2774380536013</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9221326107918</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349077</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P11" t="n">
-        <v>448.4202733404285</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.06185410720624</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K12" t="n">
-        <v>187.5832002159942</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L12" t="n">
-        <v>448.4202733404285</v>
+        <v>181.4168776728891</v>
       </c>
       <c r="M12" t="n">
-        <v>231.2573314561482</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O12" t="n">
-        <v>448.4202733404285</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P12" t="n">
-        <v>147.4296650425612</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.12939603629388</v>
+        <v>252.4334406190039</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.4117919595483</v>
+        <v>71.41179195954831</v>
       </c>
       <c r="K13" t="n">
         <v>198.6926970043453</v>
@@ -35577,7 +35577,7 @@
         <v>310.6722701440843</v>
       </c>
       <c r="N13" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O13" t="n">
         <v>276.6361210566988</v>
@@ -35586,7 +35586,7 @@
         <v>224.1260564259431</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314877</v>
+        <v>94.71490620314879</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.8149475898542</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K14" t="n">
         <v>130.2621430076529</v>
       </c>
       <c r="L14" t="n">
-        <v>198.876213894814</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M14" t="n">
-        <v>592.8059962257638</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0361442985892</v>
+        <v>633.5674044302604</v>
       </c>
       <c r="O14" t="n">
-        <v>614.763520997653</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P14" t="n">
-        <v>486.6315098849297</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.12322945970001</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L15" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>597.3289192884071</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N15" t="n">
-        <v>652.1659613023896</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O15" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P15" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.4117919595483</v>
+        <v>71.41179195954831</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
@@ -35814,7 +35814,7 @@
         <v>310.6722701440843</v>
       </c>
       <c r="N16" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O16" t="n">
         <v>276.6361210566988</v>
@@ -35823,7 +35823,7 @@
         <v>224.1260564259431</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314877</v>
+        <v>94.71490620314879</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>394.099625103374</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L17" t="n">
-        <v>198.876213894814</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M17" t="n">
-        <v>253.2774380536013</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023896</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O17" t="n">
-        <v>233.9633397349077</v>
+        <v>394.6886110911919</v>
       </c>
       <c r="P17" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q17" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K18" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L18" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
-        <v>652.1659613023896</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N18" t="n">
-        <v>652.1659613023896</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O18" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P18" t="n">
-        <v>357.057860041157</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L19" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M19" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N19" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O19" t="n">
         <v>199.2125590736046</v>
@@ -36060,7 +36060,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K20" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L20" t="n">
-        <v>198.876213894814</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M20" t="n">
-        <v>371.1613698248038</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N20" t="n">
-        <v>652.1659613023896</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O20" t="n">
-        <v>233.9633397349077</v>
+        <v>394.6886110911919</v>
       </c>
       <c r="P20" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q20" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L21" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>652.1659613023896</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N21" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O21" t="n">
-        <v>208.024517156203</v>
+        <v>529.7760506347971</v>
       </c>
       <c r="P21" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.4375366812244</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L22" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M22" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N22" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O22" t="n">
         <v>199.2125590736046</v>
@@ -36297,7 +36297,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>221.8149475898542</v>
+        <v>52.71833241778037</v>
       </c>
       <c r="K23" t="n">
-        <v>454.4075555788177</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L23" t="n">
-        <v>198.876213894814</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M23" t="n">
-        <v>253.2774380536013</v>
+        <v>652.1659613023897</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0361442985892</v>
+        <v>348.6297295464823</v>
       </c>
       <c r="O23" t="n">
-        <v>417.8316759387463</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P23" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q23" t="n">
-        <v>287.4382201196047</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K24" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L24" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>597.3289192884075</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N24" t="n">
-        <v>652.1659613023897</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O24" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P24" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q24" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L25" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M25" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N25" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O25" t="n">
         <v>199.2125590736046</v>
@@ -36534,7 +36534,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>441.5899140475901</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464338</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N26" t="n">
-        <v>262.0361442985892</v>
+        <v>675.5889714126386</v>
       </c>
       <c r="O26" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q26" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>696.9623952061481</v>
+        <v>477.6093142979498</v>
       </c>
       <c r="N27" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O27" t="n">
-        <v>601.8868364329326</v>
+        <v>601.8868364329325</v>
       </c>
       <c r="P27" t="n">
-        <v>210.1308274472553</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q27" t="n">
-        <v>48.12939603629388</v>
+        <v>48.12939603629385</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211117</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
@@ -36771,7 +36771,7 @@
         <v>226.682152578506</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571164</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K29" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L29" t="n">
-        <v>616.5374284452645</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M29" t="n">
-        <v>702.7909715464338</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N29" t="n">
-        <v>438.3904285797116</v>
+        <v>643.7366524702566</v>
       </c>
       <c r="O29" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K30" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L30" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>696.9623952061481</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N30" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O30" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P30" t="n">
-        <v>321.9389034110914</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q30" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.171744890301</v>
+        <v>313.1717448903009</v>
       </c>
       <c r="O31" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
-        <v>226.682152578506</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
         <v>97.27100235571163</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452645</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M32" t="n">
-        <v>253.2774380536013</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N32" t="n">
-        <v>675.588971412639</v>
+        <v>643.7366524702566</v>
       </c>
       <c r="O32" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K33" t="n">
-        <v>208.4902339510642</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L33" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>231.2573314561482</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N33" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O33" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P33" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211108</v>
+        <v>73.96788811211121</v>
       </c>
       <c r="K34" t="n">
-        <v>201.2487931569081</v>
+        <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
-        <v>291.2497071407329</v>
+        <v>291.249707140733</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966486</v>
+        <v>313.2283662966465</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903009</v>
+        <v>313.1717448903011</v>
       </c>
       <c r="O34" t="n">
-        <v>279.1922172092616</v>
+        <v>279.1922172092617</v>
       </c>
       <c r="P34" t="n">
-        <v>226.6821525785059</v>
+        <v>226.682152578506</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571156</v>
+        <v>97.27100235571169</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L35" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M35" t="n">
-        <v>253.2774380536013</v>
+        <v>294.7352950640361</v>
       </c>
       <c r="N35" t="n">
-        <v>303.4940013090244</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O35" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q35" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R35" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K36" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L36" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M36" t="n">
-        <v>696.9623952061481</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N36" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O36" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P36" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.13907373737192</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>98.28057345868132</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L37" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>337.5410516432174</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546439</v>
+        <v>261.5315934080454</v>
       </c>
       <c r="O37" t="n">
-        <v>199.2125590736046</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.64262089700179</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K38" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L38" t="n">
-        <v>198.876213894814</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M38" t="n">
-        <v>487.3645758624074</v>
+        <v>294.735295064037</v>
       </c>
       <c r="N38" t="n">
-        <v>699.3830687105734</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O38" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P38" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q38" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R38" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K39" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5978712350565</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N39" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O39" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P39" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>28.33950665340157</v>
       </c>
       <c r="K40" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L40" t="n">
         <v>315.5623924873031</v>
       </c>
       <c r="M40" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N40" t="n">
-        <v>233.1920867546439</v>
+        <v>337.4844302368711</v>
       </c>
       <c r="O40" t="n">
-        <v>303.5049025558319</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P40" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.63085087345578</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K41" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L41" t="n">
-        <v>198.876213894814</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M41" t="n">
-        <v>702.7909715464338</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105734</v>
+        <v>303.4940013090242</v>
       </c>
       <c r="O41" t="n">
-        <v>511.1675472248867</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q41" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R41" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L42" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>495.198320598264</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N42" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O42" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P42" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.33950665340003</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>121.2691350212511</v>
+        <v>225.5614785034783</v>
       </c>
       <c r="L43" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M43" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N43" t="n">
-        <v>337.4844302368713</v>
+        <v>337.4844302368711</v>
       </c>
       <c r="O43" t="n">
-        <v>199.2125590736046</v>
+        <v>227.5520657270067</v>
       </c>
       <c r="P43" t="n">
-        <v>250.9948379250762</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K44" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M44" t="n">
-        <v>253.2774380536013</v>
+        <v>294.7352950640361</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3830687105734</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O44" t="n">
-        <v>387.9710687681776</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P44" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q44" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R44" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L45" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0006385660309</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N45" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O45" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P45" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q45" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>28.33950665340129</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L46" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M46" t="n">
-        <v>233.2487081609901</v>
+        <v>337.5410516432173</v>
       </c>
       <c r="N46" t="n">
-        <v>337.4844302368712</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O46" t="n">
         <v>199.2125590736046</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q46" t="n">
-        <v>121.5836877022818</v>
+        <v>45.630850873456</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
